--- a/biology/Médecine/Polype_juvénile/Polype_juvénile.xlsx
+++ b/biology/Médecine/Polype_juvénile/Polype_juvénile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Polype_juv%C3%A9nile</t>
+          <t>Polype_juvénile</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine, un polype juvénile est une tumeur bénigne, de type hamartomateuse, se développant sur l'ensemble du tube digestif (le plus souvent le colon et le rectum).
 Il s'agit du type de polype le plus souvent rencontré chez les enfants, souvent de moins de 7 ans, mais peuvent tout de même être diagnostiqués à tous les âges, mais rarement après 20 ans.
